--- a/resource/filePresupuesto/Presupuesto0014.xlsx
+++ b/resource/filePresupuesto/Presupuesto0014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t/>
   </si>
@@ -29,13 +29,13 @@
     <t>Sr.</t>
   </si>
   <si>
-    <t>Ing. Fernando del Hierro.</t>
-  </si>
-  <si>
-    <t>OFERTA: INGEHISA 0021 - REV 001</t>
-  </si>
-  <si>
-    <t>Guayaquil, 23 de Enero del 2019</t>
+    <t>Mahamen</t>
+  </si>
+  <si>
+    <t>OFERTA: INGEHISA 0012 - REV 002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guayaquil, </t>
   </si>
   <si>
     <t>INGENIERIA HIDROSANITARIA</t>
@@ -59,13 +59,10 @@
     <t>PRECIO TOTAL</t>
   </si>
   <si>
-    <t>Suministro e Instalacion de tuberia de 4"</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Suministro e Instalacion de tuberia de 2"</t>
+    <t>jTextField6</t>
+  </si>
+  <si>
+    <t>jTextField5</t>
   </si>
   <si>
     <t>SUBTOTAL</t>
@@ -80,7 +77,10 @@
     <t xml:space="preserve">Nota: En esta oferta no se incluye lo siguiente: </t>
   </si>
   <si>
-    <t>Instalaciones Electricas en general</t>
+    <t>asasa</t>
+  </si>
+  <si>
+    <t>asasasa</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="14.0"/>
+      <sz val="13.0"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -239,7 +239,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.7265625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="15.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="12.48828125" customWidth="true" bestFit="true"/>
   </cols>
@@ -295,21 +295,29 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
     </row>
     <row r="6">
       <c r="B6" t="s">
@@ -384,14 +392,14 @@
         <v>16</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>52.2</v>
+        <v>4.0</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>44.31</v>
+        <v>136.47</v>
       </c>
       <c r="L9" s="6" t="n">
         <f>SUM(J9*K9)</f>
-        <v>2312.98</v>
+        <v>545.88</v>
       </c>
     </row>
     <row r="10">
@@ -399,7 +407,7 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -410,14 +418,14 @@
         <v>16</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2.3</v>
+        <v>2.0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>37.66</v>
+        <v>641.93</v>
       </c>
       <c r="L10" s="6" t="n">
         <f>SUM(J10*K10)</f>
-        <v>86.62</v>
+        <v>1283.86</v>
       </c>
     </row>
     <row r="11">
@@ -430,7 +438,7 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="6">
@@ -447,7 +455,7 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="6">
@@ -464,7 +472,7 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="6">
@@ -473,13 +481,13 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -491,7 +499,27 @@
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="17"/>
+    <row r="16">
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:L1"/>
@@ -499,7 +527,6 @@
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="C8:H8"/>
@@ -510,6 +537,7 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
